--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\leave-analyzer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67A219D2-DACA-41D6-8DBE-52C64FB55227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A89D17-1E4E-4DDF-9D3B-5E11E0FB4405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{36E4E450-0E1A-4D7F-9DD2-723CE326D887}"/>
   </bookViews>
@@ -900,7 +900,7 @@
   <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -972,7 +972,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D5" s="2">
-        <v>0.58333333333333337</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -982,6 +982,12 @@
       <c r="B6" s="1">
         <v>45662</v>
       </c>
+      <c r="C6" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.80555555555555558</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1063,9 +1069,7 @@
       <c r="C12" s="2">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D12" s="2">
-        <v>0.58333333333333337</v>
-      </c>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\leave-analyzer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A89D17-1E4E-4DDF-9D3B-5E11E0FB4405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFDCBD5-009A-4EC7-9B0E-BDBB5D4BDECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{36E4E450-0E1A-4D7F-9DD2-723CE326D887}"/>
   </bookViews>
@@ -34,7 +34,7 @@
     <t>Out-Time</t>
   </si>
   <si>
-    <t>John Doe</t>
+    <t>Josh</t>
   </si>
 </sst>
 </file>
@@ -900,10 +900,16 @@
   <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
